--- a/data/projects/LEADING PREMIUM/output.xlsx
+++ b/data/projects/LEADING PREMIUM/output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P120"/>
+  <dimension ref="A1:P238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -842,6 +842,19 @@
       <c r="P7" t="inlineStr"/>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>特典会A（O-EAST3F）</t>
+        </is>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
       <c r="E8" t="n">
         <v>6</v>
       </c>
@@ -887,6 +900,19 @@
       <c r="P8" t="inlineStr"/>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>特典会B（O-EAST2F）</t>
+        </is>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
       <c r="E9" t="n">
         <v>7</v>
       </c>
@@ -932,6 +958,19 @@
       <c r="P9" t="inlineStr"/>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>特典会C（ジーカンズ4F）</t>
+        </is>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
       <c r="E10" t="n">
         <v>8</v>
       </c>
@@ -977,6 +1016,19 @@
       <c r="P10" t="inlineStr"/>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>特典会D（ジーカンズ4F）</t>
+        </is>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
       <c r="E11" t="n">
         <v>9</v>
       </c>
@@ -1022,6 +1074,19 @@
       <c r="P11" t="inlineStr"/>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>特典会E（ジーカンズ5F）</t>
+        </is>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
       <c r="E12" t="n">
         <v>10</v>
       </c>
@@ -1067,6 +1132,19 @@
       <c r="P12" t="inlineStr"/>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>特典会F（ジーカンズ5F）</t>
+        </is>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
       <c r="E13" t="n">
         <v>11</v>
       </c>
@@ -1112,6 +1190,19 @@
       <c r="P13" t="inlineStr"/>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>特典会G（WOMB1F）</t>
+        </is>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
       <c r="E14" t="n">
         <v>12</v>
       </c>
@@ -1157,6 +1248,19 @@
       <c r="P14" t="inlineStr"/>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>特典会H（WOMB1F）</t>
+        </is>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
       <c r="E15" t="n">
         <v>13</v>
       </c>
@@ -1202,6 +1306,19 @@
       <c r="P15" t="inlineStr"/>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>特典会I（WOMB4F）</t>
+        </is>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
       <c r="E16" t="n">
         <v>14</v>
       </c>
@@ -1247,6 +1364,19 @@
       <c r="P16" t="inlineStr"/>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>特典会J（RING1F）</t>
+        </is>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
       <c r="E17" t="n">
         <v>15</v>
       </c>
@@ -1292,6 +1422,19 @@
       <c r="P17" t="inlineStr"/>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>特典会K（RING4F）</t>
+        </is>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
       <c r="E18" t="n">
         <v>16</v>
       </c>
@@ -1337,6 +1480,19 @@
       <c r="P18" t="inlineStr"/>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>特典会L（RING4F）</t>
+        </is>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
       <c r="E19" t="n">
         <v>17</v>
       </c>
@@ -1382,6 +1538,19 @@
       <c r="P19" t="inlineStr"/>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>特典会M（RING4F）</t>
+        </is>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
       <c r="E20" t="n">
         <v>18</v>
       </c>
@@ -1427,6 +1596,19 @@
       <c r="P20" t="inlineStr"/>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>特典会N（RING4F）</t>
+        </is>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
       <c r="E21" t="n">
         <v>19</v>
       </c>
@@ -1472,6 +1654,19 @@
       <c r="P21" t="inlineStr"/>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>特典会O（nest6F）</t>
+        </is>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
       <c r="E22" t="n">
         <v>20</v>
       </c>
@@ -1517,6 +1712,19 @@
       <c r="P22" t="inlineStr"/>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>特典会P（nest6F）</t>
+        </is>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
       <c r="E23" t="n">
         <v>21</v>
       </c>
@@ -1562,6 +1770,19 @@
       <c r="P23" t="inlineStr"/>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>特典会Q（nest6F）</t>
+        </is>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
       <c r="E24" t="n">
         <v>22</v>
       </c>
@@ -1607,6 +1828,19 @@
       <c r="P24" t="inlineStr"/>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>特典会R（VeatsB1）</t>
+        </is>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
       <c r="E25" t="n">
         <v>23</v>
       </c>
@@ -1652,6 +1886,19 @@
       <c r="P25" t="inlineStr"/>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>特典会S（VeatsB1）</t>
+        </is>
+      </c>
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
       <c r="E26" t="n">
         <v>24</v>
       </c>
@@ -1697,6 +1944,19 @@
       <c r="P26" t="inlineStr"/>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>特典会T（VeatsB2）</t>
+        </is>
+      </c>
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
       <c r="E27" t="n">
         <v>25</v>
       </c>
@@ -1742,6 +2002,19 @@
       <c r="P27" t="inlineStr"/>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>終演後物販（O-EAST）</t>
+        </is>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
       <c r="E28" t="n">
         <v>26</v>
       </c>
@@ -1787,6 +2060,19 @@
       <c r="P28" t="inlineStr"/>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>終演後物販（O-WEST）</t>
+        </is>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
       <c r="E29" t="n">
         <v>27</v>
       </c>
@@ -1832,6 +2118,19 @@
       <c r="P29" t="inlineStr"/>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>終演後物販（RING）</t>
+        </is>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
       <c r="E30" t="n">
         <v>28</v>
       </c>
@@ -1877,6 +2176,19 @@
       <c r="P30" t="inlineStr"/>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>終演後物販（nest）</t>
+        </is>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
       <c r="E31" t="n">
         <v>29</v>
       </c>
@@ -1922,6 +2234,19 @@
       <c r="P31" t="inlineStr"/>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>終演後物販（Veats）</t>
+        </is>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
       <c r="E32" t="n">
         <v>30</v>
       </c>
@@ -3866,7 +4191,7 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -3877,7 +4202,7 @@
         <v>25</v>
       </c>
       <c r="K75" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3886,12 +4211,12 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>JYA☆PON 2.0</t>
+          <t>Amulet A Mute</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>JYA☆PON 2.0</t>
+          <t>Amulet A Mute</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -3911,37 +4236,37 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="J76" t="n">
         <v>25</v>
       </c>
       <c r="K76" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>Amulet A Mute</t>
+          <t>Malcolm Mask McLaren</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Amulet A Mute</t>
+          <t>Malcolm Mask McLaren</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>SHIBUYA RING</t>
+          <t>Spotify O-nest</t>
         </is>
       </c>
       <c r="P76" t="inlineStr"/>
@@ -3956,18 +4281,18 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="J77" t="n">
         <v>25</v>
       </c>
       <c r="K77" t="n">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3976,12 +4301,12 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>Malcolm Mask McLaren</t>
+          <t>少年秘密倶楽部</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Malcolm Mask McLaren</t>
+          <t>少年秘密倶楽部</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -4001,18 +4326,18 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="J78" t="n">
         <v>25</v>
       </c>
       <c r="K78" t="n">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -4021,12 +4346,12 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>少年秘密倶楽部</t>
+          <t>may in film</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>少年秘密倶楽部</t>
+          <t>may in film</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -4046,18 +4371,18 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="J79" t="n">
         <v>25</v>
       </c>
       <c r="K79" t="n">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -4066,12 +4391,12 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>may in film</t>
+          <t>AZATOY</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>may in film</t>
+          <t>AZATOY</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -4091,18 +4416,18 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="J80" t="n">
         <v>25</v>
       </c>
       <c r="K80" t="n">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -4111,12 +4436,12 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>AZATOY</t>
+          <t>都の国のアリス</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>AZATOY</t>
+          <t>都の国のアリス</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -4136,18 +4461,18 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="J81" t="n">
         <v>25</v>
       </c>
       <c r="K81" t="n">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -4156,12 +4481,12 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>都の国のアリス</t>
+          <t>KAIJU ON THE STAGE</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>都の国のアリス</t>
+          <t>KAIJU ON THE STAGE</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -4181,18 +4506,18 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="J82" t="n">
         <v>25</v>
       </c>
       <c r="K82" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -4201,12 +4526,12 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>KAIJU ON THE STAGE</t>
+          <t>FOKALITE</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>KAIJU ON THE STAGE</t>
+          <t>FOKALITE</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -4226,18 +4551,18 @@
         </is>
       </c>
       <c r="H83" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="J83" t="n">
         <v>25</v>
       </c>
       <c r="K83" t="n">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -4246,12 +4571,12 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>FOKALITE</t>
+          <t>アンチテーゼ</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>FOKALITE</t>
+          <t>アンチテーゼ</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -4271,18 +4596,18 @@
         </is>
       </c>
       <c r="H84" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>14:40</t>
         </is>
       </c>
       <c r="J84" t="n">
         <v>25</v>
       </c>
       <c r="K84" t="n">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -4291,12 +4616,12 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>アンチテーゼ</t>
+          <t>ROOKEY♡ROOKEYS</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>アンチテーゼ</t>
+          <t>ROOKEY♡ROOKEYS</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -4316,18 +4641,18 @@
         </is>
       </c>
       <c r="H85" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>14:40</t>
+          <t>15:05</t>
         </is>
       </c>
       <c r="J85" t="n">
         <v>25</v>
       </c>
       <c r="K85" t="n">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -4336,12 +4661,12 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>ROOKEY♡ROOKEYS</t>
+          <t>どーぴんぐ疑惑</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>ROOKEY♡ROOKEYS</t>
+          <t>どーぴんぐ疑惑</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -4361,18 +4686,18 @@
         </is>
       </c>
       <c r="H86" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>15:40</t>
         </is>
       </c>
       <c r="J86" t="n">
         <v>25</v>
       </c>
       <c r="K86" t="n">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -4381,12 +4706,12 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>どーぴんぐ疑惑</t>
+          <t>空想ロマンス</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>どーぴんぐ疑惑</t>
+          <t>空想ロマンス</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -4406,18 +4731,18 @@
         </is>
       </c>
       <c r="H87" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>15:40</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="J87" t="n">
         <v>25</v>
       </c>
       <c r="K87" t="n">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -4426,12 +4751,12 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>空想ロマンス</t>
+          <t>Shangmoo</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>空想ロマンス</t>
+          <t>Shangmoo</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -4451,18 +4776,18 @@
         </is>
       </c>
       <c r="H88" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J88" t="n">
         <v>25</v>
       </c>
       <c r="K88" t="n">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -4471,12 +4796,12 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>Shangmoo</t>
+          <t>Chalca</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Shangmoo</t>
+          <t>Chalca</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -4496,18 +4821,18 @@
         </is>
       </c>
       <c r="H89" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:55</t>
         </is>
       </c>
       <c r="J89" t="n">
         <v>25</v>
       </c>
       <c r="K89" t="n">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -4516,12 +4841,12 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>Chalca</t>
+          <t>TELLMIT</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>Chalca</t>
+          <t>TELLMIT</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -4541,18 +4866,18 @@
         </is>
       </c>
       <c r="H90" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>16:55</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="J90" t="n">
         <v>25</v>
       </c>
       <c r="K90" t="n">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4561,12 +4886,12 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>TELLMIT</t>
+          <t>zanka</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>TELLMIT</t>
+          <t>zanka</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -4586,18 +4911,18 @@
         </is>
       </c>
       <c r="H91" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>17:20</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="J91" t="n">
         <v>25</v>
       </c>
       <c r="K91" t="n">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4606,12 +4931,12 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>zanka</t>
+          <t>AFTERS</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>zanka</t>
+          <t>AFTERS</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -4631,18 +4956,18 @@
         </is>
       </c>
       <c r="H92" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:15</t>
         </is>
       </c>
       <c r="J92" t="n">
         <v>25</v>
       </c>
       <c r="K92" t="n">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4651,12 +4976,12 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>AFTERS</t>
+          <t>限りなく白く</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>AFTERS</t>
+          <t>限りなく白く</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -4676,18 +5001,18 @@
         </is>
       </c>
       <c r="H93" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>18:15</t>
+          <t>18:40</t>
         </is>
       </c>
       <c r="J93" t="n">
         <v>25</v>
       </c>
       <c r="K93" t="n">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4696,12 +5021,12 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>限りなく白く</t>
+          <t>JINKS</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>限りなく白く</t>
+          <t>JINKS</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -4721,18 +5046,18 @@
         </is>
       </c>
       <c r="H94" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>18:40</t>
+          <t>19:05</t>
         </is>
       </c>
       <c r="J94" t="n">
         <v>25</v>
       </c>
       <c r="K94" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4741,12 +5066,12 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>JINKS</t>
+          <t>SPRISE</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>JINKS</t>
+          <t>SPRISE</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -4766,18 +5091,18 @@
         </is>
       </c>
       <c r="H95" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>19:05</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="J95" t="n">
         <v>25</v>
       </c>
       <c r="K95" t="n">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4786,12 +5111,12 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>SPRISE</t>
+          <t>猫の眼に宇宙</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>SPRISE</t>
+          <t>猫の眼に宇宙</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -4811,18 +5136,18 @@
         </is>
       </c>
       <c r="H96" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:55</t>
         </is>
       </c>
       <c r="J96" t="n">
         <v>25</v>
       </c>
       <c r="K96" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4831,12 +5156,12 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>猫の眼に宇宙</t>
+          <t>東京ガールズブラボー</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>猫の眼に宇宙</t>
+          <t>東京ガールズブラボー</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -4856,18 +5181,18 @@
         </is>
       </c>
       <c r="H97" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>19:55</t>
+          <t>20:20</t>
         </is>
       </c>
       <c r="J97" t="n">
         <v>25</v>
       </c>
       <c r="K97" t="n">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4876,12 +5201,12 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>東京ガールズブラボー</t>
+          <t>YA’ABURNEE</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>東京ガールズブラボー</t>
+          <t>YA'ABURNEE</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -4901,37 +5226,37 @@
         </is>
       </c>
       <c r="H98" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>20:20</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="J98" t="n">
         <v>25</v>
       </c>
       <c r="K98" t="n">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>YA’ABURNEE</t>
+          <t>こみつきゅおん！</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>YA'ABURNEE</t>
+          <t>こみっきゅおん！</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Spotify O-nest</t>
+          <t>Veats SHIBUYA</t>
         </is>
       </c>
       <c r="P98" t="inlineStr"/>
@@ -4946,18 +5271,18 @@
         </is>
       </c>
       <c r="H99" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="J99" t="n">
         <v>25</v>
       </c>
       <c r="K99" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4966,12 +5291,12 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>こみつきゅおん！</t>
+          <t>unSea</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>こみっきゅおん！</t>
+          <t>unSea</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -4991,18 +5316,18 @@
         </is>
       </c>
       <c r="H100" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="J100" t="n">
         <v>25</v>
       </c>
       <c r="K100" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -5011,12 +5336,12 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>unSea</t>
+          <t>NUANCE</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>unSea</t>
+          <t>NUANCE</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -5036,18 +5361,18 @@
         </is>
       </c>
       <c r="H101" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="J101" t="n">
         <v>25</v>
       </c>
       <c r="K101" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -5056,12 +5381,12 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>NUANCE</t>
+          <t>OLNew</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>NUANCE</t>
+          <t>OLNew</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -5081,18 +5406,18 @@
         </is>
       </c>
       <c r="H102" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="J102" t="n">
         <v>25</v>
       </c>
       <c r="K102" t="n">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -5101,12 +5426,12 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>OLNew</t>
+          <t>hakanai</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>OLNew</t>
+          <t>hakanai</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -5126,18 +5451,18 @@
         </is>
       </c>
       <c r="H103" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="J103" t="n">
         <v>25</v>
       </c>
       <c r="K103" t="n">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -5146,12 +5471,12 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>hakanai</t>
+          <t>selfish</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>hakanai</t>
+          <t>selfish</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -5171,18 +5496,18 @@
         </is>
       </c>
       <c r="H104" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="J104" t="n">
         <v>25</v>
       </c>
       <c r="K104" t="n">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -5191,12 +5516,12 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>selfish</t>
+          <t>LADYBABY</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>selfish</t>
+          <t>LADYBABY</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -5216,18 +5541,18 @@
         </is>
       </c>
       <c r="H105" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="J105" t="n">
         <v>25</v>
       </c>
       <c r="K105" t="n">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -5236,12 +5561,12 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>LADYBABY</t>
+          <t>超常フォーチューン</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>LADYBABY</t>
+          <t>超常フォーチューン</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -5261,18 +5586,18 @@
         </is>
       </c>
       <c r="H106" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="J106" t="n">
         <v>25</v>
       </c>
       <c r="K106" t="n">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -5281,12 +5606,12 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>超常フォーチューン</t>
+          <t>iiiidolli</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>超常フォーチューン</t>
+          <t>iiiidolll</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -5306,18 +5631,18 @@
         </is>
       </c>
       <c r="H107" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="J107" t="n">
         <v>25</v>
       </c>
       <c r="K107" t="n">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -5326,12 +5651,12 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>iiiidolli</t>
+          <t>BOCCHI。</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>iiiidolll</t>
+          <t>BOCCHI。</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -5351,18 +5676,18 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>15:10</t>
+          <t>15:40</t>
         </is>
       </c>
       <c r="J108" t="n">
         <v>25</v>
       </c>
       <c r="K108" t="n">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -5371,12 +5696,12 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>BOCCHI。</t>
+          <t>ハニースパイスRe.</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>BOCCHI。</t>
+          <t>ハニースパイスRe.</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -5396,18 +5721,18 @@
         </is>
       </c>
       <c r="H109" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="J109" t="n">
         <v>25</v>
       </c>
       <c r="K109" t="n">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -5416,12 +5741,12 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>ハニースパイスRe.</t>
+          <t>すてねこキャッツ</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>ハニースパイスRe.</t>
+          <t>すてねこキャッツ</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -5441,18 +5766,18 @@
         </is>
       </c>
       <c r="H110" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>16:10</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="J110" t="n">
         <v>25</v>
       </c>
       <c r="K110" t="n">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -5461,12 +5786,12 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>すてねこキャッツ</t>
+          <t>l’ｍew(あいみゅう)</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>すてねこキャッツ</t>
+          <t>I’mew（あいみゅう）</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -5486,18 +5811,18 @@
         </is>
       </c>
       <c r="H111" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>16:35</t>
+          <t>16:55</t>
         </is>
       </c>
       <c r="J111" t="n">
         <v>25</v>
       </c>
       <c r="K111" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -5506,12 +5831,12 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>l’ｍew(あいみゅう)</t>
+          <t>THE ENCORE</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>I’mew（あいみゅう）</t>
+          <t>THE ENCORE</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -5531,18 +5856,18 @@
         </is>
       </c>
       <c r="H112" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:20</t>
         </is>
       </c>
       <c r="J112" t="n">
         <v>25</v>
       </c>
       <c r="K112" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -5551,12 +5876,12 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>THE ENCORE</t>
+          <t>群青の世界</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>THE ENCORE</t>
+          <t>群青の世界</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -5576,18 +5901,18 @@
         </is>
       </c>
       <c r="H113" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>17:25</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="J113" t="n">
         <v>25</v>
       </c>
       <c r="K113" t="n">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -5596,12 +5921,12 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>群青の世界</t>
+          <t>I to U $CREAMING!!</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>群青の世界</t>
+          <t>I to U $CREAMing!!</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -5621,18 +5946,18 @@
         </is>
       </c>
       <c r="H114" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>17:55</t>
+          <t>18:15</t>
         </is>
       </c>
       <c r="J114" t="n">
         <v>25</v>
       </c>
       <c r="K114" t="n">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -5641,12 +5966,12 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>I to U $CREAMING!!</t>
+          <t>himawari(船橋)</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>I to U $CREAMing!!</t>
+          <t>himawari(船橋)</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -5666,18 +5991,18 @@
         </is>
       </c>
       <c r="H115" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>18:20</t>
+          <t>18:40</t>
         </is>
       </c>
       <c r="J115" t="n">
         <v>25</v>
       </c>
       <c r="K115" t="n">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -5686,12 +6011,12 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>himawari(船橋)</t>
+          <t>MAGICAL SPEC</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>himawari(船橋)</t>
+          <t>MAGICAL SPEC</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -5711,18 +6036,18 @@
         </is>
       </c>
       <c r="H116" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>19:05</t>
         </is>
       </c>
       <c r="J116" t="n">
         <v>25</v>
       </c>
       <c r="K116" t="n">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -5731,12 +6056,12 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>MAGICAL SPEC</t>
+          <t>スーパーベイビーズ</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>MAGICAL SPEC</t>
+          <t>スーパーベイビーズ</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -5756,18 +6081,18 @@
         </is>
       </c>
       <c r="H117" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>19:10</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="J117" t="n">
         <v>25</v>
       </c>
       <c r="K117" t="n">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -5776,12 +6101,12 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>スーパーベイビーズ</t>
+          <t>点染テンセイ少女。</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>スーパーベイビーズ</t>
+          <t>点染テンセイ少女。</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -5801,18 +6126,18 @@
         </is>
       </c>
       <c r="H118" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>19:35</t>
+          <t>19:55</t>
         </is>
       </c>
       <c r="J118" t="n">
         <v>25</v>
       </c>
       <c r="K118" t="n">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -5821,12 +6146,12 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>点染テンセイ少女。</t>
+          <t>メイビーME</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>点染テンセイ少女。</t>
+          <t>メイビーME</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -5846,18 +6171,18 @@
         </is>
       </c>
       <c r="H119" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>20:20</t>
         </is>
       </c>
       <c r="J119" t="n">
         <v>25</v>
       </c>
       <c r="K119" t="n">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -5866,12 +6191,12 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>メイビーME</t>
+          <t>SW!CH</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>メイビーME</t>
+          <t>SW!CH</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -5891,40 +6216,4413 @@
         </is>
       </c>
       <c r="H120" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>20:25</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="J120" t="n">
         <v>25</v>
       </c>
       <c r="K120" t="n">
+        <v>21</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>JYA☆PON 2.0</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>JYA☆PON 2.0</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>Veats SHIBUYA</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="E121" t="n">
+        <v>119</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>SITUASION</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>120</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>11:55</t>
+        </is>
+      </c>
+      <c r="J121" t="n">
+        <v>75</v>
+      </c>
+      <c r="K121" t="n">
+        <v>112</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>衛星とカラテア</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>衛星とカラテア</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>特典会A（O-EAST3F）</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="H122" t="n">
+        <v>121</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>13:25</t>
+        </is>
+      </c>
+      <c r="J122" t="n">
+        <v>75</v>
+      </c>
+      <c r="K122" t="n">
+        <v>100</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>ラフ×ラフ</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>ラフ×ラフ</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>特典会A（O-EAST3F）</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="H123" t="n">
+        <v>122</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="J123" t="n">
+        <v>75</v>
+      </c>
+      <c r="K123" t="n">
+        <v>51</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>THE ORCHESTRA TOKYO</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>THE ORCHESTRA TOKYO</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>特典会A（O-EAST3F）</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="H124" t="n">
+        <v>123</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="J124" t="n">
+        <v>75</v>
+      </c>
+      <c r="K124" t="n">
+        <v>23</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>Kolokol</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>Kolokol</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>特典会A（O-EAST3F）</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="H125" t="n">
+        <v>124</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>17:50</t>
+        </is>
+      </c>
+      <c r="J125" t="n">
+        <v>75</v>
+      </c>
+      <c r="K125" t="n">
+        <v>37</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>PIGGS</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>PIGGS</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>特典会A（O-EAST3F）</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="H126" t="n">
+        <v>125</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="J126" t="n">
+        <v>75</v>
+      </c>
+      <c r="K126" t="n">
+        <v>69</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>かすみ草とステラ</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>かすみ草とステラ</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>特典会A（O-EAST3F）</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="H127" t="n">
+        <v>126</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>12:25</t>
+        </is>
+      </c>
+      <c r="J127" t="n">
+        <v>75</v>
+      </c>
+      <c r="K127" t="n">
+        <v>114</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>透色ドロップ</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>透色ドロップ</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>特典会B（O-EAST2F）</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="H128" t="n">
+        <v>127</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>13:55</t>
+        </is>
+      </c>
+      <c r="J128" t="n">
+        <v>75</v>
+      </c>
+      <c r="K128" t="n">
+        <v>86</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>クマリデパート</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>クマリデパート</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>特典会B（O-EAST2F）</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="H129" t="n">
+        <v>128</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="J129" t="n">
+        <v>75</v>
+      </c>
+      <c r="K129" t="n">
+        <v>119</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>SITUASION</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>SITUASION</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>特典会B（O-EAST2F）</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="H130" t="n">
+        <v>129</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="J130" t="n">
+        <v>75</v>
+      </c>
+      <c r="K130" t="n">
+        <v>10</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>CYNHN</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>CYNHN</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>特典会B（O-EAST2F）</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="H131" t="n">
+        <v>130</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>18:20</t>
+        </is>
+      </c>
+      <c r="J131" t="n">
+        <v>75</v>
+      </c>
+      <c r="K131" t="n">
+        <v>66</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>ukka</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>ukka</t>
+        </is>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>特典会B（O-EAST2F）</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="H132" t="n">
+        <v>131</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>19:40</t>
+        </is>
+      </c>
+      <c r="J132" t="n">
+        <v>75</v>
+      </c>
+      <c r="K132" t="n">
+        <v>12</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>FESTIVE</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>FES☆TIVE</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>特典会B（O-EAST2F）</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="H133" t="n">
+        <v>132</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="J133" t="n">
+        <v>75</v>
+      </c>
+      <c r="K133" t="n">
+        <v>7</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>BLACKNAZARENE</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>BLACKNAZARENE</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>特典会B（O-EAST2F）</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="H134" t="n">
+        <v>133</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>12:55</t>
+        </is>
+      </c>
+      <c r="J134" t="n">
+        <v>75</v>
+      </c>
+      <c r="K134" t="n">
+        <v>89</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>ドラマチックレコード</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>ドラマチックレコード</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>特典会C（ジーカンズ4F）</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="H135" t="n">
+        <v>134</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>14:25</t>
+        </is>
+      </c>
+      <c r="J135" t="n">
+        <v>75</v>
+      </c>
+      <c r="K135" t="n">
+        <v>42</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>Ringwanderung</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>Ringwanderung</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>特典会C（ジーカンズ4F）</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="H136" t="n">
+        <v>135</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="J136" t="n">
+        <v>75</v>
+      </c>
+      <c r="K136" t="n">
+        <v>33</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>NEO JAPONISM</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>NEO JAPONISM</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>特典会C（ジーカンズ4F）</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="H137" t="n">
+        <v>136</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="J137" t="n">
+        <v>75</v>
+      </c>
+      <c r="K137" t="n">
+        <v>97</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>ポンコツコンポ</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>ポンコツコンポ</t>
+        </is>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>特典会D（ジーカンズ4F）</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="H138" t="n">
+        <v>137</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="J138" t="n">
+        <v>75</v>
+      </c>
+      <c r="K138" t="n">
+        <v>73</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>てぃあどろっぷ！</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>てぃあどろっぷ！</t>
+        </is>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>特典会D（ジーカンズ4F）</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="H139" t="n">
+        <v>138</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>15:05</t>
+        </is>
+      </c>
+      <c r="J139" t="n">
+        <v>75</v>
+      </c>
+      <c r="K139" t="n">
+        <v>52</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>UtaGe!</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>UtaGe!</t>
+        </is>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>特典会D（ジーカンズ4F）</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="H140" t="n">
+        <v>139</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="J140" t="n">
+        <v>75</v>
+      </c>
+      <c r="K140" t="n">
+        <v>17</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>I MY ME MINE</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>I MY ME MINE</t>
+        </is>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>特典会E（ジーカンズ5F）</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="H141" t="n">
+        <v>140</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="J141" t="n">
+        <v>75</v>
+      </c>
+      <c r="K141" t="n">
+        <v>78</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>のらりくらり</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>のらりくらり</t>
+        </is>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>特典会E（ジーカンズ5F）</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="H142" t="n">
+        <v>141</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>15:35</t>
+        </is>
+      </c>
+      <c r="J142" t="n">
+        <v>75</v>
+      </c>
+      <c r="K142" t="n">
+        <v>99</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>ラナキュラ</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>ラナキュラ</t>
+        </is>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>特典会E（ジーカンズ5F）</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="H143" t="n">
+        <v>142</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="J143" t="n">
+        <v>75</v>
+      </c>
+      <c r="K143" t="n">
+        <v>60</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>ideal peco</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>ideal peco</t>
+        </is>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>特典会F（ジーカンズ5F）</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="H144" t="n">
+        <v>143</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="J144" t="n">
+        <v>75</v>
+      </c>
+      <c r="K144" t="n">
+        <v>2</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>AOAO</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>AOAO</t>
+        </is>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>特典会F（ジーカンズ5F）</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="H145" t="n">
+        <v>144</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="J145" t="n">
+        <v>75</v>
+      </c>
+      <c r="K145" t="n">
+        <v>29</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>Ma'Scer'Piece</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>Ma’Scar’Piece</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>特典会G（WOMB1F）</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="H146" t="n">
+        <v>145</v>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="J146" t="n">
+        <v>75</v>
+      </c>
+      <c r="K146" t="n">
+        <v>55</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>airattic</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>airattic</t>
+        </is>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>特典会G（WOMB1F）</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="H147" t="n">
+        <v>146</v>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>15:10</t>
+        </is>
+      </c>
+      <c r="J147" t="n">
+        <v>75</v>
+      </c>
+      <c r="K147" t="n">
+        <v>43</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>SAISON</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>SAISON</t>
+        </is>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>特典会G（WOMB1F）</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="H148" t="n">
+        <v>147</v>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="J148" t="n">
+        <v>75</v>
+      </c>
+      <c r="K148" t="n">
+        <v>96</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>ベンジャス!</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>ベンジャス！</t>
+        </is>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>特典会G（WOMB1F）</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="H149" t="n">
+        <v>148</v>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>17:50</t>
+        </is>
+      </c>
+      <c r="J149" t="n">
+        <v>75</v>
+      </c>
+      <c r="K149" t="n">
+        <v>46</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>STAiNY</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>STAiNY</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>特典会G（WOMB1F）</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="H150" t="n">
+        <v>149</v>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>19:15</t>
+        </is>
+      </c>
+      <c r="J150" t="n">
+        <v>75</v>
+      </c>
+      <c r="K150" t="n">
+        <v>75</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>なんキニ!</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>なんキニ!</t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>特典会G（WOMB1F）</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="H151" t="n">
+        <v>150</v>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="J151" t="n">
+        <v>75</v>
+      </c>
+      <c r="K151" t="n">
+        <v>54</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>YOLOZ</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>YOLOZ</t>
+        </is>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>特典会H（WOMB1F）</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="H152" t="n">
+        <v>151</v>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="J152" t="n">
+        <v>75</v>
+      </c>
+      <c r="K152" t="n">
+        <v>38</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>PRSMIN</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>PRSMIN</t>
+        </is>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>特典会H（WOMB1F）</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="H153" t="n">
+        <v>152</v>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>15:40</t>
+        </is>
+      </c>
+      <c r="J153" t="n">
+        <v>75</v>
+      </c>
+      <c r="K153" t="n">
+        <v>31</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>Mirror, Mirror</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>Mirror,Mirror</t>
+        </is>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>特典会H（WOMB1F）</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="H154" t="n">
+        <v>153</v>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="J154" t="n">
+        <v>75</v>
+      </c>
+      <c r="K154" t="n">
+        <v>26</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>MEWM</t>
+        </is>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>MEWM</t>
+        </is>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>特典会H（WOMB1F）</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="H155" t="n">
+        <v>154</v>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>18:20</t>
+        </is>
+      </c>
+      <c r="J155" t="n">
+        <v>75</v>
+      </c>
+      <c r="K155" t="n">
+        <v>111</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>虹色の飛行少女</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>虹色の飛行少女</t>
+        </is>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>特典会H（WOMB1F）</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="H156" t="n">
+        <v>155</v>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="J156" t="n">
+        <v>75</v>
+      </c>
+      <c r="K156" t="n">
+        <v>35</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>NightOwl</t>
+        </is>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>NightOwl</t>
+        </is>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>特典会I（WOMB4F）</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="H157" t="n">
+        <v>156</v>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>14:40</t>
+        </is>
+      </c>
+      <c r="J157" t="n">
+        <v>75</v>
+      </c>
+      <c r="K157" t="n">
+        <v>84</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>キングサリー</t>
+        </is>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>キングサリ</t>
+        </is>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>特典会I（WOMB4F）</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="H158" t="n">
+        <v>157</v>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>16:10</t>
+        </is>
+      </c>
+      <c r="J158" t="n">
+        <v>75</v>
+      </c>
+      <c r="K158" t="n">
+        <v>27</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>Maison de Queen</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>Maison de Queen</t>
+        </is>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>特典会I（WOMB4F）</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="H159" t="n">
+        <v>158</v>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="J159" t="n">
+        <v>75</v>
+      </c>
+      <c r="K159" t="n">
+        <v>44</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>SCRAMBLE SMILE</t>
+        </is>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>SCRAMBLE SMILE</t>
+        </is>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>特典会I（WOMB4F）</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="H160" t="n">
+        <v>159</v>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>18:50</t>
+        </is>
+      </c>
+      <c r="J160" t="n">
+        <v>75</v>
+      </c>
+      <c r="K160" t="n">
+        <v>95</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>フューチャーサイダー</t>
+        </is>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>フューチャーサイダー</t>
+        </is>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>特典会I（WOMB4F）</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="H161" t="n">
+        <v>160</v>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>12:45</t>
+        </is>
+      </c>
+      <c r="J161" t="n">
+        <v>75</v>
+      </c>
+      <c r="K161" t="n">
+        <v>4</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>Aerolipop</t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>Aerolipop</t>
+        </is>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>特典会J（RING1F）</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="H162" t="n">
+        <v>161</v>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>14:05</t>
+        </is>
+      </c>
+      <c r="J162" t="n">
+        <v>75</v>
+      </c>
+      <c r="K162" t="n">
+        <v>62</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>kimikara（きみから）</t>
+        </is>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>kimikara（きみから）</t>
+        </is>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>特典会J（RING1F）</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="H163" t="n">
+        <v>162</v>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>15:25</t>
+        </is>
+      </c>
+      <c r="J163" t="n">
+        <v>75</v>
+      </c>
+      <c r="K163" t="n">
+        <v>92</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>ニーナキューオメガ</t>
+        </is>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>ニーキューオメガ</t>
+        </is>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>特典会J（RING1F）</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="H164" t="n">
+        <v>163</v>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="J164" t="n">
+        <v>75</v>
+      </c>
+      <c r="K164" t="n">
+        <v>81</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>ぼくはまだしない</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>ぼくはまだしなない</t>
+        </is>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>特典会J（RING1F）</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="H165" t="n">
+        <v>164</v>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>18:05</t>
+        </is>
+      </c>
+      <c r="J165" t="n">
+        <v>75</v>
+      </c>
+      <c r="K165" t="n">
+        <v>16</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>Honey Devil</t>
+        </is>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>Honey Devil</t>
+        </is>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>特典会J（RING1F）</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="H166" t="n">
+        <v>165</v>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+      <c r="J166" t="n">
+        <v>75</v>
+      </c>
+      <c r="K166" t="n">
+        <v>117</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>雨のち、レーション</t>
+        </is>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>雨のち、ハレーション</t>
+        </is>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>特典会J（RING1F）</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="H167" t="n">
+        <v>166</v>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>11:55</t>
+        </is>
+      </c>
+      <c r="J167" t="n">
+        <v>75</v>
+      </c>
+      <c r="K167" t="n">
+        <v>15</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>HACK</t>
+        </is>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>HACK</t>
+        </is>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>特典会K（RING4F）</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="H168" t="n">
+        <v>167</v>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>13:15</t>
+        </is>
+      </c>
+      <c r="J168" t="n">
+        <v>75</v>
+      </c>
+      <c r="K168" t="n">
+        <v>41</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>RINGCENT#</t>
+        </is>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>RiNCENT♯</t>
+        </is>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>特典会K（RING4F）</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="H169" t="n">
+        <v>168</v>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>14:35</t>
+        </is>
+      </c>
+      <c r="J169" t="n">
+        <v>75</v>
+      </c>
+      <c r="K169" t="n">
+        <v>77</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>にっぽん！真骨頂</t>
+        </is>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>にっぽん！真骨頂</t>
+        </is>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>特典会K（RING4F）</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="H170" t="n">
+        <v>169</v>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>15:55</t>
+        </is>
+      </c>
+      <c r="J170" t="n">
+        <v>75</v>
+      </c>
+      <c r="K170" t="n">
+        <v>59</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>Neo Moon</t>
+        </is>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>i Neo Moon</t>
+        </is>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>特典会K（RING4F）</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="H171" t="n">
+        <v>170</v>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="J171" t="n">
+        <v>75</v>
+      </c>
+      <c r="K171" t="n">
+        <v>91</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>ニコルポップ</t>
+        </is>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>ニコルポップ</t>
+        </is>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>特典会K（RING4F）</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="H172" t="n">
+        <v>171</v>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>18:35</t>
+        </is>
+      </c>
+      <c r="J172" t="n">
+        <v>75</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>1000日後の話。</t>
+        </is>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>1000日後の話。</t>
+        </is>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>特典会K（RING4F）</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="H173" t="n">
+        <v>172</v>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>19:55</t>
+        </is>
+      </c>
+      <c r="J173" t="n">
+        <v>75</v>
+      </c>
+      <c r="K173" t="n">
+        <v>14</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>FULIT BOX</t>
+        </is>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>FULIT BOX</t>
+        </is>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>特典会K（RING4F）</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="H174" t="n">
+        <v>173</v>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>12:20</t>
+        </is>
+      </c>
+      <c r="J174" t="n">
+        <v>75</v>
+      </c>
+      <c r="K174" t="n">
+        <v>80</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>ぴ〜ちくぱ〜ちく</t>
+        </is>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>ぴ〜ちくぱ〜ちく</t>
+        </is>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>特典会L（RING4F）</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="H175" t="n">
+        <v>174</v>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>13:40</t>
+        </is>
+      </c>
+      <c r="J175" t="n">
+        <v>75</v>
+      </c>
+      <c r="K175" t="n">
+        <v>9</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>BUNGEE GUM.</t>
+        </is>
+      </c>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>BUNGEE GUM.</t>
+        </is>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>特典会L（RING4F）</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="H176" t="n">
+        <v>175</v>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="J176" t="n">
+        <v>75</v>
+      </c>
+      <c r="K176" t="n">
+        <v>87</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>スターチスのラブレター</t>
+        </is>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>スターチスのラブレター</t>
+        </is>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>特典会L（RING4F）</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="H177" t="n">
+        <v>176</v>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>16:20</t>
+        </is>
+      </c>
+      <c r="J177" t="n">
+        <v>75</v>
+      </c>
+      <c r="K177" t="n">
+        <v>82</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">みちサブ! </t>
+        </is>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>みらサプ！</t>
+        </is>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>特典会L（RING4F）</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="H178" t="n">
+        <v>177</v>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>17:40</t>
+        </is>
+      </c>
+      <c r="J178" t="n">
+        <v>75</v>
+      </c>
+      <c r="K178" t="n">
+        <v>104</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>星合いのライラック</t>
+        </is>
+      </c>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>星合いのライラック</t>
+        </is>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>特典会L（RING4F）</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="H179" t="n">
+        <v>178</v>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="J179" t="n">
+        <v>75</v>
+      </c>
+      <c r="K179" t="n">
+        <v>85</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>ギガLOVEアップデート</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>ギガLOVEアップビート</t>
+        </is>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>特典会L（RING4F）</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="H180" t="n">
+        <v>179</v>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>17:20</t>
+        </is>
+      </c>
+      <c r="J180" t="n">
+        <v>75</v>
+      </c>
+      <c r="K180" t="n">
+        <v>6</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>BELLRING少女ハート</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>BELLRING少女ハート</t>
+        </is>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>特典会M（RING4F）</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="H181" t="n">
+        <v>180</v>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>18:40</t>
+        </is>
+      </c>
+      <c r="J181" t="n">
+        <v>75</v>
+      </c>
+      <c r="K181" t="n">
+        <v>56</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>feelNEO</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>feelNEO</t>
+        </is>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>特典会M（RING4F）</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="H182" t="n">
+        <v>181</v>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="J182" t="n">
+        <v>75</v>
+      </c>
+      <c r="K182" t="n">
+        <v>76</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>にっぽんワチャチャ</t>
+        </is>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>にっぽんワチャチャ</t>
+        </is>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>特典会M（RING4F）</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="H183" t="n">
+        <v>182</v>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>16:40</t>
+        </is>
+      </c>
+      <c r="J183" t="n">
+        <v>75</v>
+      </c>
+      <c r="K183" t="n">
+        <v>105</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>最終未来少女</t>
+        </is>
+      </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>最終未来少女</t>
+        </is>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>特典会N（RING4F）</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="H184" t="n">
+        <v>183</v>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="J184" t="n">
+        <v>75</v>
+      </c>
+      <c r="K184" t="n">
+        <v>39</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>Quubi</t>
+        </is>
+      </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>Quubi</t>
+        </is>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>特典会N（RING4F）</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="H185" t="n">
+        <v>184</v>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>19:20</t>
+        </is>
+      </c>
+      <c r="J185" t="n">
+        <v>75</v>
+      </c>
+      <c r="K185" t="n">
+        <v>71</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>さとりモンスター</t>
+        </is>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>さとりモンスター</t>
+        </is>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>特典会N（RING4F）</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="H186" t="n">
+        <v>185</v>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>20:40</t>
+        </is>
+      </c>
+      <c r="J186" t="n">
+        <v>75</v>
+      </c>
+      <c r="K186" t="n">
+        <v>32</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>NARLOW</t>
+        </is>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>NARLOW</t>
+        </is>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>特典会N（RING4F）</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="H187" t="n">
+        <v>186</v>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>11:50</t>
+        </is>
+      </c>
+      <c r="J187" t="n">
+        <v>75</v>
+      </c>
+      <c r="K187" t="n">
+        <v>28</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>Malcolm Mask McLaren</t>
+        </is>
+      </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>Malcolm Mask McLaren</t>
+        </is>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>特典会O（nest6F）</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="H188" t="n">
+        <v>187</v>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>13:10</t>
+        </is>
+      </c>
+      <c r="J188" t="n">
+        <v>75</v>
+      </c>
+      <c r="K188" t="n">
+        <v>3</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>AZATOY</t>
+        </is>
+      </c>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>AZATOY</t>
+        </is>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>特典会O（nest6F）</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="H189" t="n">
+        <v>188</v>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="J189" t="n">
+        <v>75</v>
+      </c>
+      <c r="K189" t="n">
+        <v>13</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>FOKALITE</t>
+        </is>
+      </c>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>FOKALITE</t>
+        </is>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>特典会O（nest6F）</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="H190" t="n">
+        <v>189</v>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>15:50</t>
+        </is>
+      </c>
+      <c r="J190" t="n">
+        <v>75</v>
+      </c>
+      <c r="K190" t="n">
+        <v>74</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>どーぴんぐ疑惑</t>
+        </is>
+      </c>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>どーぴんぐ疑惑</t>
+        </is>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>特典会O（nest6F）</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="H191" t="n">
+        <v>190</v>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>17:10</t>
+        </is>
+      </c>
+      <c r="J191" t="n">
+        <v>75</v>
+      </c>
+      <c r="K191" t="n">
+        <v>11</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>Chalca</t>
+        </is>
+      </c>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>Chalca</t>
+        </is>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>特典会O（nest6F）</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="H192" t="n">
+        <v>191</v>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="J192" t="n">
+        <v>75</v>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>AFTERS</t>
+        </is>
+      </c>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>AFTERS</t>
+        </is>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>特典会O（nest6F）</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="H193" t="n">
+        <v>192</v>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="J193" t="n">
+        <v>75</v>
+      </c>
+      <c r="K193" t="n">
+        <v>45</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>SPRISE</t>
+        </is>
+      </c>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>SPRISE</t>
+        </is>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>特典会O（nest6F）</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="H194" t="n">
+        <v>193</v>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="J194" t="n">
+        <v>75</v>
+      </c>
+      <c r="K194" t="n">
+        <v>103</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>少年秘密倶楽部</t>
+        </is>
+      </c>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>少年秘密倶楽部</t>
+        </is>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>特典会P（nest6F）</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="H195" t="n">
+        <v>194</v>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>13:35</t>
+        </is>
+      </c>
+      <c r="J195" t="n">
+        <v>75</v>
+      </c>
+      <c r="K195" t="n">
+        <v>115</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>都の国のアリス</t>
+        </is>
+      </c>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>都の国のアリス</t>
+        </is>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>特典会P（nest6F）</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="H196" t="n">
+        <v>195</v>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>14:55</t>
+        </is>
+      </c>
+      <c r="J196" t="n">
+        <v>75</v>
+      </c>
+      <c r="K196" t="n">
+        <v>83</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>アンチテーゼ</t>
+        </is>
+      </c>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>アンチテーゼ</t>
+        </is>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>特典会P（nest6F）</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="H197" t="n">
+        <v>196</v>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="J197" t="n">
+        <v>75</v>
+      </c>
+      <c r="K197" t="n">
+        <v>109</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>空想ロマンス</t>
+        </is>
+      </c>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>空想ロマンス</t>
+        </is>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>特典会P（nest6F）</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="H198" t="n">
+        <v>197</v>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>17:35</t>
+        </is>
+      </c>
+      <c r="J198" t="n">
+        <v>75</v>
+      </c>
+      <c r="K198" t="n">
+        <v>49</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>TELLMIT</t>
+        </is>
+      </c>
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>TELLMIT</t>
+        </is>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>特典会P（nest6F）</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="H199" t="n">
+        <v>198</v>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>18:55</t>
+        </is>
+      </c>
+      <c r="J199" t="n">
+        <v>75</v>
+      </c>
+      <c r="K199" t="n">
+        <v>116</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>限りなく白く</t>
+        </is>
+      </c>
+      <c r="N199" t="inlineStr">
+        <is>
+          <t>限りなく白く</t>
+        </is>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>特典会P（nest6F）</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="H200" t="n">
+        <v>199</v>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>12:40</t>
+        </is>
+      </c>
+      <c r="J200" t="n">
+        <v>75</v>
+      </c>
+      <c r="K200" t="n">
+        <v>63</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>may in film</t>
+        </is>
+      </c>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>may in film</t>
+        </is>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>特典会Q（nest6F）</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="H201" t="n">
+        <v>200</v>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="J201" t="n">
+        <v>75</v>
+      </c>
+      <c r="K201" t="n">
+        <v>22</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>KAIJU ON THE STAGE</t>
+        </is>
+      </c>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>KAIJU ON THE STAGE</t>
+        </is>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>特典会Q（nest6F）</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="H202" t="n">
+        <v>201</v>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
+      <c r="J202" t="n">
+        <v>75</v>
+      </c>
+      <c r="K202" t="n">
+        <v>40</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>ROOKEY ROOKEYS</t>
+        </is>
+      </c>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>ROOKEY♡ROOKEYS</t>
+        </is>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>特典会Q（nest6F）</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="H203" t="n">
+        <v>202</v>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>16:40</t>
+        </is>
+      </c>
+      <c r="J203" t="n">
+        <v>75</v>
+      </c>
+      <c r="K203" t="n">
+        <v>48</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>Shangmoo</t>
+        </is>
+      </c>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>Shangmoo</t>
+        </is>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>特典会Q（nest6F）</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="H204" t="n">
+        <v>203</v>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="J204" t="n">
+        <v>75</v>
+      </c>
+      <c r="K204" t="n">
+        <v>68</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>zanka</t>
+        </is>
+      </c>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>zanka</t>
+        </is>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>特典会Q（nest6F）</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="H205" t="n">
+        <v>204</v>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>19:20</t>
+        </is>
+      </c>
+      <c r="J205" t="n">
+        <v>75</v>
+      </c>
+      <c r="K205" t="n">
+        <v>20</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>JINKS</t>
+        </is>
+      </c>
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>JINKS</t>
+        </is>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>特典会Q（nest6F）</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="H206" t="n">
+        <v>205</v>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>12:05</t>
+        </is>
+      </c>
+      <c r="J206" t="n">
+        <v>75</v>
+      </c>
+      <c r="K206" t="n">
+        <v>70</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>こみっきゅおん！</t>
+        </is>
+      </c>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>こみっきゅおん！</t>
+        </is>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>特典会R（VeatsB1）</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="H207" t="n">
+        <v>206</v>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>13:25</t>
+        </is>
+      </c>
+      <c r="J207" t="n">
+        <v>75</v>
+      </c>
+      <c r="K207" t="n">
+        <v>36</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>OLNew</t>
+        </is>
+      </c>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>OLNew</t>
+        </is>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>特典会R（VeatsB1）</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="H208" t="n">
+        <v>207</v>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>14:45</t>
+        </is>
+      </c>
+      <c r="J208" t="n">
+        <v>75</v>
+      </c>
+      <c r="K208" t="n">
+        <v>24</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>LADY BABY</t>
+        </is>
+      </c>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>LADYBABY</t>
+        </is>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>特典会R（VeatsB1）</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="H209" t="n">
+        <v>208</v>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>16:05</t>
+        </is>
+      </c>
+      <c r="J209" t="n">
+        <v>75</v>
+      </c>
+      <c r="K209" t="n">
+        <v>8</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>BOCCHI。</t>
+        </is>
+      </c>
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>BOCCHI。</t>
+        </is>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>特典会R（VeatsB1）</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="H210" t="n">
+        <v>209</v>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>17:25</t>
+        </is>
+      </c>
+      <c r="J210" t="n">
+        <v>75</v>
+      </c>
+      <c r="K210" t="n">
+        <v>19</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>I’mew あいみゅう</t>
+        </is>
+      </c>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>I’mew（あいみゅう）</t>
+        </is>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>特典会R（VeatsB1）</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="H211" t="n">
+        <v>210</v>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>18:45</t>
+        </is>
+      </c>
+      <c r="J211" t="n">
+        <v>75</v>
+      </c>
+      <c r="K211" t="n">
+        <v>18</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>I to U $CREAMing!!</t>
+        </is>
+      </c>
+      <c r="N211" t="inlineStr">
+        <is>
+          <t>I to U $CREAMing!!</t>
+        </is>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>特典会R（VeatsB1）</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="H212" t="n">
+        <v>211</v>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>20:05</t>
+        </is>
+      </c>
+      <c r="J212" t="n">
+        <v>75</v>
+      </c>
+      <c r="K212" t="n">
+        <v>88</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>スーパー ベイビーズ</t>
+        </is>
+      </c>
+      <c r="N212" t="inlineStr">
+        <is>
+          <t>スーパーベイビーズ</t>
+        </is>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>特典会R（VeatsB1）</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="H213" t="n">
+        <v>212</v>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="J213" t="n">
+        <v>75</v>
+      </c>
+      <c r="K213" t="n">
+        <v>67</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>unSea</t>
+        </is>
+      </c>
+      <c r="N213" t="inlineStr">
+        <is>
+          <t>unSea</t>
+        </is>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>特典会S（VeatsB1）</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="H214" t="n">
+        <v>213</v>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>13:50</t>
+        </is>
+      </c>
+      <c r="J214" t="n">
+        <v>75</v>
+      </c>
+      <c r="K214" t="n">
+        <v>57</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>hakanai</t>
+        </is>
+      </c>
+      <c r="N214" t="inlineStr">
+        <is>
+          <t>hakanai</t>
+        </is>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>特典会S（VeatsB1）</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="H215" t="n">
+        <v>214</v>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>15:10</t>
+        </is>
+      </c>
+      <c r="J215" t="n">
+        <v>75</v>
+      </c>
+      <c r="K215" t="n">
+        <v>113</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>超常フォーチューン</t>
+        </is>
+      </c>
+      <c r="N215" t="inlineStr">
+        <is>
+          <t>超常フォーチューン</t>
+        </is>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>特典会S（VeatsB1）</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="H216" t="n">
+        <v>215</v>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="J216" t="n">
+        <v>75</v>
+      </c>
+      <c r="K216" t="n">
+        <v>94</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>ハニースパイスRe.</t>
+        </is>
+      </c>
+      <c r="N216" t="inlineStr">
+        <is>
+          <t>ハニースパイスRe.</t>
+        </is>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>特典会S（VeatsB1）</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="H217" t="n">
+        <v>216</v>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>17:50</t>
+        </is>
+      </c>
+      <c r="J217" t="n">
+        <v>75</v>
+      </c>
+      <c r="K217" t="n">
+        <v>50</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>THE ENCORE</t>
+        </is>
+      </c>
+      <c r="N217" t="inlineStr">
+        <is>
+          <t>THE ENCORE</t>
+        </is>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>特典会S（VeatsB1）</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="H218" t="n">
+        <v>217</v>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>19:10</t>
+        </is>
+      </c>
+      <c r="J218" t="n">
+        <v>75</v>
+      </c>
+      <c r="K218" t="n">
+        <v>58</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>himawari（船橋）</t>
+        </is>
+      </c>
+      <c r="N218" t="inlineStr">
+        <is>
+          <t>himawari(船橋)</t>
+        </is>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>特典会S（VeatsB1）</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="H219" t="n">
+        <v>218</v>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="J219" t="n">
+        <v>75</v>
+      </c>
+      <c r="K219" t="n">
+        <v>107</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>点染テンセイ少女。</t>
+        </is>
+      </c>
+      <c r="N219" t="inlineStr">
+        <is>
+          <t>点染テンセイ少女。</t>
+        </is>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>特典会S（VeatsB1）</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="H220" t="n">
+        <v>219</v>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>12:55</t>
+        </is>
+      </c>
+      <c r="J220" t="n">
+        <v>75</v>
+      </c>
+      <c r="K220" t="n">
+        <v>34</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>NUANCE</t>
+        </is>
+      </c>
+      <c r="N220" t="inlineStr">
+        <is>
+          <t>NUANCE</t>
+        </is>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>特典会T（VeatsB2）</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="H221" t="n">
+        <v>220</v>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>14:15</t>
+        </is>
+      </c>
+      <c r="J221" t="n">
+        <v>75</v>
+      </c>
+      <c r="K221" t="n">
+        <v>64</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>selfish</t>
+        </is>
+      </c>
+      <c r="N221" t="inlineStr">
+        <is>
+          <t>selfish</t>
+        </is>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>特典会T（VeatsB2）</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="H222" t="n">
+        <v>221</v>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>15:35</t>
+        </is>
+      </c>
+      <c r="J222" t="n">
+        <v>75</v>
+      </c>
+      <c r="K222" t="n">
+        <v>61</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>iiiidoll</t>
+        </is>
+      </c>
+      <c r="N222" t="inlineStr">
+        <is>
+          <t>iiiidolll</t>
+        </is>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>特典会T（VeatsB2）</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="H223" t="n">
+        <v>222</v>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>16:55</t>
+        </is>
+      </c>
+      <c r="J223" t="n">
+        <v>75</v>
+      </c>
+      <c r="K223" t="n">
+        <v>72</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>すてねこキャッツ</t>
+        </is>
+      </c>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>すてねこキャッツ</t>
+        </is>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>特典会T（VeatsB2）</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="H224" t="n">
+        <v>223</v>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>18:15</t>
+        </is>
+      </c>
+      <c r="J224" t="n">
+        <v>75</v>
+      </c>
+      <c r="K224" t="n">
+        <v>110</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>群青の世界</t>
+        </is>
+      </c>
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>群青の世界</t>
+        </is>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>特典会T（VeatsB2）</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="H225" t="n">
+        <v>224</v>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>19:35</t>
+        </is>
+      </c>
+      <c r="J225" t="n">
+        <v>75</v>
+      </c>
+      <c r="K225" t="n">
+        <v>25</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>MAGICAL SPEC</t>
+        </is>
+      </c>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>MAGICAL SPEC</t>
+        </is>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>特典会T（VeatsB2）</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="H226" t="n">
+        <v>225</v>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>21:15</t>
+        </is>
+      </c>
+      <c r="J226" t="n">
+        <v>75</v>
+      </c>
+      <c r="K226" t="n">
+        <v>79</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>のんふぃく</t>
+        </is>
+      </c>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>のんふぃく！</t>
+        </is>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>終演後物販（O-EAST）</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="H227" t="n">
+        <v>226</v>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>21:15</t>
+        </is>
+      </c>
+      <c r="J227" t="n">
+        <v>75</v>
+      </c>
+      <c r="K227" t="n">
+        <v>30</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>Merry BAD TUNE.</t>
+        </is>
+      </c>
+      <c r="N227" t="inlineStr">
+        <is>
+          <t>Merry BAD TUNE.</t>
+        </is>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>終演後物販（O-EAST）</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="H228" t="n">
+        <v>227</v>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>21:15</t>
+        </is>
+      </c>
+      <c r="J228" t="n">
+        <v>75</v>
+      </c>
+      <c r="K228" t="n">
+        <v>90</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>ナナランド</t>
+        </is>
+      </c>
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>ナナランド</t>
+        </is>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>終演後物販（O-EAST）</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="H229" t="n">
+        <v>228</v>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="J229" t="n">
+        <v>75</v>
+      </c>
+      <c r="K229" t="n">
+        <v>101</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>ルルネージュ</t>
+        </is>
+      </c>
+      <c r="N229" t="inlineStr">
+        <is>
+          <t>ルルネージュ</t>
+        </is>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>終演後物販（O-WEST）</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="H230" t="n">
+        <v>229</v>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="J230" t="n">
+        <v>75</v>
+      </c>
+      <c r="K230" t="n">
+        <v>102</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>可憐なアイボリー</t>
+        </is>
+      </c>
+      <c r="N230" t="inlineStr">
+        <is>
+          <t>可憐なアイボリー</t>
+        </is>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>終演後物販（O-WEST）</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="H231" t="n">
+        <v>230</v>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="J231" t="n">
+        <v>75</v>
+      </c>
+      <c r="K231" t="n">
+        <v>93</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>ネコプラpixx.</t>
+        </is>
+      </c>
+      <c r="N231" t="inlineStr">
+        <is>
+          <t>ネコプラpixx.</t>
+        </is>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>終演後物販（O-WEST）</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="H232" t="n">
+        <v>231</v>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>20:15</t>
+        </is>
+      </c>
+      <c r="J232" t="n">
+        <v>75</v>
+      </c>
+      <c r="K232" t="n">
+        <v>5</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>Amulet A Mute</t>
+        </is>
+      </c>
+      <c r="N232" t="inlineStr">
+        <is>
+          <t>Amulet A Mute</t>
+        </is>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>終演後物販（RING）</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="H233" t="n">
+        <v>232</v>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="J233" t="n">
+        <v>75</v>
+      </c>
+      <c r="K233" t="n">
+        <v>108</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>猫の眼に宇宙</t>
+        </is>
+      </c>
+      <c r="N233" t="inlineStr">
+        <is>
+          <t>猫の眼に宇宙</t>
+        </is>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>終演後物販（nest）</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="H234" t="n">
+        <v>233</v>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="J234" t="n">
+        <v>75</v>
+      </c>
+      <c r="K234" t="n">
+        <v>106</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>東京ガールズブラボー</t>
+        </is>
+      </c>
+      <c r="N234" t="inlineStr">
+        <is>
+          <t>東京ガールズブラボー</t>
+        </is>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>終演後物販（nest）</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="H235" t="n">
+        <v>234</v>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="J235" t="n">
+        <v>75</v>
+      </c>
+      <c r="K235" t="n">
+        <v>53</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>YA'ABURNEE</t>
+        </is>
+      </c>
+      <c r="N235" t="inlineStr">
+        <is>
+          <t>YA'ABURNEE</t>
+        </is>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>終演後物販（nest）</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="H236" t="n">
+        <v>235</v>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>21:10</t>
+        </is>
+      </c>
+      <c r="J236" t="n">
+        <v>75</v>
+      </c>
+      <c r="K236" t="n">
+        <v>98</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>メイビー ME</t>
+        </is>
+      </c>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>メイビーME</t>
+        </is>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>終演後物販（Veats）</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="H237" t="n">
+        <v>236</v>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>21:10</t>
+        </is>
+      </c>
+      <c r="J237" t="n">
+        <v>75</v>
+      </c>
+      <c r="K237" t="n">
         <v>47</v>
       </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="M120" t="inlineStr">
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M237" t="inlineStr">
         <is>
           <t>SW!CH</t>
         </is>
       </c>
-      <c r="N120" t="inlineStr">
+      <c r="N237" t="inlineStr">
         <is>
           <t>SW!CH</t>
         </is>
       </c>
-      <c r="O120" t="inlineStr">
-        <is>
-          <t>Veats SHIBUYA</t>
-        </is>
-      </c>
-      <c r="P120" t="inlineStr"/>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>終演後物販（Veats）</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="H238" t="n">
+        <v>237</v>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>21:10</t>
+        </is>
+      </c>
+      <c r="J238" t="n">
+        <v>75</v>
+      </c>
+      <c r="K238" t="n">
+        <v>21</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>JYA☆PON 2.0</t>
+        </is>
+      </c>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>JYA☆PON 2.0</t>
+        </is>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>終演後物販（Veats）</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
